--- a/biology/Botanique/Liste_des_espèces_de_myrte/Liste_des_espèces_de_myrte.xlsx
+++ b/biology/Botanique/Liste_des_espèces_de_myrte/Liste_des_espèces_de_myrte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_myrte</t>
+          <t>Liste_des_espèces_de_myrte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Myrtus ne contient aujourd'hui seulement deux espèces : Myrtus communis et Myrtus nivellei.
 Cependant, de nombreuses autres espèces originaires d'Amérique du Sud et d'Océanie, un temps classées comme  appartenant au genre Myrtus, ont été transférées dans les genres Archirhodomyrtus, Eugenia, Lophomyrtus, Luma, Psidium, Rhodomyrtus, Syzygium, Ugni, Ixora, Gossia,  Neomyrtus, Blepharocalyx, Myrcia, Calyptranthes, Myrteola, Pimenta, Mosiera, Planchonia, Melaleuca, Calycolpus, Metrosideros, Uromyrtus, Xanthomyrtus et Myrceugenia. Ainsi, autour de 600 noms binomiaux ont Myrtus comme nom générique.
@@ -498,7 +510,7 @@
 Myrtus communis var. tarentina L. 1753
 Myrtus communis var. variegata L. 1753
 Myrtus cordata Sw. 1788 (= Eugenia cordata var. cordata (Sw.) DC. )
-Myrtus ehrenbergii 1854 [1856] (= Mosiera ehrenbergii (O.Berg) L.R.Landrum)
+Myrtus ehrenbergii 1854  (= Mosiera ehrenbergii (O.Berg) L.R.Landrum)
 Myrtus glabrata Sw. 1788 (= Eugenia glabrata (Sw.) DC. )
 Myrtus ligustrina Sw. 1788 (= Eugenia ligustrina (Sw.) Willd.)
 Myrtus molinae 1847 (= Ugni molinae Turcz. )
@@ -507,9 +519,9 @@
 Myrtus procera Sw. 1788 (= Eugenia procera (Sw.) Poir. )
 Myrtus splendens Sw. 1788 (= Myrcia splendens (Sw.) DC. )
 Myrtus ugni 1782 (= Ugni molinae Turcz. )
-Myrtus verrucosa Berg 1854 [1856] (= Psidium longipes var. longipes (Berg) McVaugh)
+Myrtus verrucosa Berg 1854  (= Psidium longipes var. longipes (Berg) McVaugh)
 Myrtus zuzygium L. 1759 (= Calyptranthes zuzygium (L.) Sw. )
-Selon Tropicos                                           (6 novembre 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (6 novembre 2020) (Attention liste brute contenant possiblement des synonymes) :
 Myrtus acerosa O. Berg
 Myrtus acetosans (Poir.) Spreng.
 Myrtus acka Juss. ex DC.
